--- a/biology/Histoire de la zoologie et de la botanique/Dmitri_Litvinov/Dmitri_Litvinov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dmitri_Litvinov/Dmitri_Litvinov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimitri Ivanovitch Litvinov (Дми́трий Ива́нович Литви́нов), né le 17 (29) décembre 1854 à Moscou et mort le 5 juillet 1929 à Léningrad, est un géobotaniste et botaniste russe. Ses travaux sont parfois connus sous l'orthographe allemande de son nom Dmitrij (Iwanowitsch) Litwinow.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Litvinov poursuit ses études secondaires au Premier lycée classique de Moscou, puis il entre à l'École impériale technique de Moscou qu'il termine en 1879, recevant le titre de constructeur-mécanicien. Il enseigne alors à l'École, mais il démissionne en 1889 pour se consacrer entièrement à sa passion, la botanique et devenir conservateur scientifique au musée botanique de l'Académie des sciences de Saint-Pétersbourg, où il demeure jusqu'à la fin de sa vie.
 Litvinov voyage aussi beaucoup et participe à quantité d'expéditions dans l'Empire russe et en Mandchourie. Il découvre en 1882 avec Vassili Zinger le phénomène botanique du mont Galitch. Il est le premier à émettre l'hypothèse de l'origine des pins des montagnes calcaires de Russie européenne, comme étant des reliques d'âge antérieur.
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ru) Notes phytogéographiques sur la flore de la Russie européenne, in Bulletin de la Société impériale des naturalistes de Moscou, tome IV, pp. 322–434 (1890)
 (ru) Sur le caractère de relique de la flore des pentes calcaires en Russie européenne, in Труды Ботанического музея Академии наук [Travaux du musée botanique de l'Académie des sciences], Saint-Pétersbourg, tome I, pp. 76–109 (1902)
